--- a/grid_data_input_file.xlsx
+++ b/grid_data_input_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\SHIFT2DC\case_study_33nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c30483\Documents\dc_design_tool\dc_design_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4387E08-EFFF-4815-9900-0CA45C940F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F350988B-393B-4B77-9DEB-414FB8BFCA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5055" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
   <si>
     <t>Node_i</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Cu</t>
+  </si>
+  <si>
+    <t>hv</t>
+  </si>
+  <si>
+    <t>lv</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">RANDBETWEEN(30,1000)/300</f>
-        <v>1.9466666666666668</v>
+        <v>2.0933333333333333</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
@@ -637,7 +643,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C33" ca="1" si="0">RANDBETWEEN(10,1000)/300</f>
-        <v>0.28999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
@@ -653,7 +659,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>1.98</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
@@ -669,7 +675,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4566666666666668</v>
+        <v>1.4733333333333334</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -685,7 +691,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52</v>
+        <v>1.5033333333333334</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
@@ -701,7 +707,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2966666666666669</v>
+        <v>2.0366666666666666</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
@@ -717,7 +723,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.98</v>
+        <v>1.7666666666666666</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
@@ -733,7 +739,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1633333333333333</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
@@ -749,7 +755,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.94</v>
+        <v>1.4033333333333333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -765,7 +771,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4266666666666667</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -781,7 +787,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>3.1933333333333334</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
@@ -797,7 +803,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>2.5533333333333332</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
@@ -813,7 +819,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7033333333333334</v>
+        <v>2.5633333333333335</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
@@ -829,7 +835,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43666666666666665</v>
+        <v>1.9566666666666668</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
@@ -845,7 +851,7 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
+        <v>2.85</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
@@ -861,7 +867,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2333333333333334</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
@@ -877,7 +883,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0133333333333334</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
@@ -893,7 +899,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91333333333333333</v>
+        <v>2.7233333333333332</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
@@ -909,7 +915,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.33</v>
+        <v>2.6766666666666667</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -925,7 +931,7 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -941,7 +947,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14666666666666667</v>
+        <v>1.65</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -957,7 +963,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -973,7 +979,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0233333333333334</v>
+        <v>1.33</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -989,7 +995,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39333333333333331</v>
+        <v>0.84</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -1005,7 +1011,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11666666666666667</v>
+        <v>1.29</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -1021,7 +1027,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>1.65</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
@@ -1037,7 +1043,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8466666666666667</v>
+        <v>1.9966666666666666</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
@@ -1053,7 +1059,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10666666666666667</v>
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
@@ -1069,7 +1075,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52666666666666662</v>
+        <v>1.21</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
@@ -1085,7 +1091,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3266666666666667</v>
+        <v>0.19333333333333333</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
@@ -1101,7 +1107,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.92</v>
+        <v>0.79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="4"/>
@@ -1117,7 +1123,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54</v>
+        <v>2.0233333333333334</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
@@ -1133,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804CF21E-C353-4454-9B0E-05956E676815}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,6 +1644,9 @@
       <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -1650,6 +1659,9 @@
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -1662,6 +1674,9 @@
       <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
       <c r="E37">
         <v>400</v>
       </c>
@@ -1677,6 +1692,9 @@
       <c r="C38" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -1689,6 +1707,9 @@
       <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -1701,6 +1722,9 @@
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -1713,6 +1737,9 @@
       <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -1725,6 +1752,9 @@
       <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -1737,6 +1767,9 @@
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -1749,6 +1782,9 @@
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -1761,6 +1797,9 @@
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -1773,6 +1812,9 @@
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -1785,6 +1827,9 @@
       <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -1797,8 +1842,11 @@
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -1809,8 +1857,11 @@
       <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>1700</v>
@@ -1821,8 +1872,11 @@
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>1800</v>
@@ -1833,8 +1887,11 @@
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>1900</v>
@@ -1845,8 +1902,11 @@
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -1857,8 +1917,11 @@
       <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>2100</v>
@@ -1869,8 +1932,11 @@
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>2200</v>
@@ -1881,8 +1947,11 @@
       <c r="C55" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>2300</v>
@@ -1893,8 +1962,11 @@
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>2400</v>
@@ -1905,8 +1977,11 @@
       <c r="C57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>2500</v>
@@ -1917,8 +1992,11 @@
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>2600</v>
@@ -1929,8 +2007,11 @@
       <c r="C59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>2700</v>
@@ -1941,8 +2022,11 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>2800</v>
@@ -1953,8 +2037,11 @@
       <c r="C61" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -1965,8 +2052,11 @@
       <c r="C62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -1977,8 +2067,11 @@
       <c r="C63" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>3100</v>
@@ -1989,8 +2082,11 @@
       <c r="C64" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>3200</v>
@@ -2001,8 +2097,11 @@
       <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>3300</v>
@@ -2012,6 +2111,9 @@
       </c>
       <c r="C66" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2070,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA95C75-007C-4C1A-8654-C87E758B33B3}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,7 +2186,7 @@
     <col min="6" max="6" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2103,8 +2205,14 @@
       <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,8 +2234,14 @@
         <f>"[[0,1],[" &amp; E2/5 &amp; ",0.98],[" &amp; E2 &amp; ",0.965]]"</f>
         <v>[[0,1],[100,0.98],[500,0.965]]</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>12600</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2149,8 +2263,14 @@
         <f t="shared" ref="F3:F33" si="2">"[[0,1],[" &amp; E3/5 &amp; ",0.98],[" &amp; E3 &amp; ",0.965]]"</f>
         <v>[[0,1],[90,0.98],[450,0.965]]</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>12600</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2172,8 +2292,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[120,0.98],[600,0.965]]</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>12600</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2195,8 +2321,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>12600</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2218,8 +2350,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>12600</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2241,8 +2379,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[200,0.98],[1000,0.965]]</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>12600</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2264,8 +2408,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[200,0.98],[1000,0.965]]</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>12600</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2287,8 +2437,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>12600</v>
+      </c>
+      <c r="H9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2310,8 +2466,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>12600</v>
+      </c>
+      <c r="H10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2333,8 +2495,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[45,0.98],[225,0.965]]</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>12600</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2356,8 +2524,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>12600</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2379,8 +2553,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>12600</v>
+      </c>
+      <c r="H13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,8 +2582,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[120,0.98],[600,0.965]]</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>12600</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2425,8 +2611,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>12600</v>
+      </c>
+      <c r="H15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2448,8 +2640,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>12600</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2471,8 +2669,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>12600</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2494,8 +2698,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[90,0.98],[450,0.965]]</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>12600</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2517,8 +2727,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[90,0.98],[450,0.965]]</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>12600</v>
+      </c>
+      <c r="H19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -2540,8 +2756,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[90,0.98],[450,0.965]]</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>12600</v>
+      </c>
+      <c r="H20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2563,8 +2785,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[90,0.98],[450,0.965]]</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>12600</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -2586,8 +2814,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[90,0.98],[450,0.965]]</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>12600</v>
+      </c>
+      <c r="H22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -2609,8 +2843,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[90,0.98],[450,0.965]]</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>12600</v>
+      </c>
+      <c r="H23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -2632,8 +2872,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[420,0.98],[2100,0.965]]</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>12600</v>
+      </c>
+      <c r="H24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2655,8 +2901,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[420,0.98],[2100,0.965]]</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>12600</v>
+      </c>
+      <c r="H25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,8 +2930,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>12600</v>
+      </c>
+      <c r="H26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2701,8 +2959,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>12600</v>
+      </c>
+      <c r="H27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -2724,8 +2988,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>12600</v>
+      </c>
+      <c r="H28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2747,8 +3017,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[120,0.98],[600,0.965]]</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>12600</v>
+      </c>
+      <c r="H29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2770,8 +3046,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[200,0.98],[1000,0.965]]</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>12600</v>
+      </c>
+      <c r="H30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2793,8 +3075,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[150,0.98],[750,0.965]]</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>12600</v>
+      </c>
+      <c r="H31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -2816,8 +3104,14 @@
         <f t="shared" si="2"/>
         <v>[[0,1],[210,0.98],[1050,0.965]]</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>12600</v>
+      </c>
+      <c r="H32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
@@ -2838,6 +3132,12 @@
       <c r="F33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>[[0,1],[60,0.98],[300,0.965]]</v>
+      </c>
+      <c r="G33">
+        <v>12600</v>
+      </c>
+      <c r="H33">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +3149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C7E31F-2F66-46C8-82F3-C15E0240EAB1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2883,6 +3183,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010052C31279B960B84EA606E1F2D867232A" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="80d45f169737dcb8bc3815f075a30fb4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2eb1e4af-f854-4f79-85c1-6f26940025e4" xmlns:ns3="d4a0f758-4b96-4ff5-8d06-f95a3d3dda1e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54681bf5e02ffc2d8e754996e0eaa00a" ns2:_="" ns3:_="">
     <xsd:import namespace="2eb1e4af-f854-4f79-85c1-6f26940025e4"/>
@@ -3131,15 +3440,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3152,6 +3452,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A4C5918-71D1-4E4E-97E5-44821031FFE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3170,14 +3478,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80A89352-0353-48F1-9429-0E3BD72B2E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D351F7AA-766C-4547-802C-9F4B7AB5F83E}">
   <ds:schemaRefs>
